--- a/app/static/app/xlsx_templates/with_troubles.xlsx
+++ b/app/static/app/xlsx_templates/with_troubles.xlsx
@@ -5,23 +5,28 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stron\PycharmProjects\self_examination_site\app\static\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stron\PycharmProjects\SESite\app\static\app\xlsx_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист 10" sheetId="10" r:id="rId1"/>
-    <sheet name="Лист 9" sheetId="9" r:id="rId2"/>
-    <sheet name="Лист 8" sheetId="8" r:id="rId3"/>
-    <sheet name="Лист 7" sheetId="7" r:id="rId4"/>
-    <sheet name="Лист 6" sheetId="6" r:id="rId5"/>
-    <sheet name="Лист 5" sheetId="5" r:id="rId6"/>
-    <sheet name="Лист 4" sheetId="4" r:id="rId7"/>
-    <sheet name="Лист 3" sheetId="3" r:id="rId8"/>
-    <sheet name="Лист 2" sheetId="2" r:id="rId9"/>
-    <sheet name="Лист 1" sheetId="1" r:id="rId10"/>
+    <sheet name="Лист 15" sheetId="15" r:id="rId1"/>
+    <sheet name="Лист 14" sheetId="14" r:id="rId2"/>
+    <sheet name="Лист 13" sheetId="13" r:id="rId3"/>
+    <sheet name="Лист 12" sheetId="12" r:id="rId4"/>
+    <sheet name="Лист 11" sheetId="11" r:id="rId5"/>
+    <sheet name="Лист 10" sheetId="10" r:id="rId6"/>
+    <sheet name="Лист 9" sheetId="9" r:id="rId7"/>
+    <sheet name="Лист 8" sheetId="8" r:id="rId8"/>
+    <sheet name="Лист 7" sheetId="7" r:id="rId9"/>
+    <sheet name="Лист 6" sheetId="6" r:id="rId10"/>
+    <sheet name="Лист 5" sheetId="5" r:id="rId11"/>
+    <sheet name="Лист 4" sheetId="4" r:id="rId12"/>
+    <sheet name="Лист 3" sheetId="3" r:id="rId13"/>
+    <sheet name="Лист 2" sheetId="2" r:id="rId14"/>
+    <sheet name="Лист 1" sheetId="1" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="20">
   <si>
     <t>№ п/п</t>
   </si>
@@ -133,36 +138,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Образец документа</t>
-  </si>
-  <si>
-    <t>Форма самообследования предоставления государственных и муниципальных услуги "Принятие решений о переводе жилых помещений в нежилые помещения и нежилых помещений в жилые помещения" в электронной форме тех районов Республики Башкортостан, для которых ответ "нет" присутствует в одной из колонок.</t>
-  </si>
-  <si>
-    <t>Форма самообследования предоставления государственных и муниципальных услуги "Прием заявлений и выдача документов о согласовании проведения переустройства и (или) перепланировки жилого помещения " в электронной форме тех районов Республики Башкортостан, для которых ответ "нет" присутствует в одной из колонок.</t>
-  </si>
-  <si>
-    <t>Форма самообследования предоставления государственных и муниципальных услуги "Выдача разрешения на установку и эксплуатацию рекламной конструкции" в электронной форме тех районов Республики Башкортостан, для которых ответ "нет" присутствует в одной из колонок.</t>
-  </si>
-  <si>
-    <t>Форма самообследования предоставления государственных и муниципальных услуги "Выдача разрешения на строительство, реконструкцию объектов капитального строительства" в электронной форме тех районов Республики Башкортостан, для которых ответ "нет" присутствует в одной из колонок.</t>
-  </si>
-  <si>
-    <t>Форма самообследования предоставления государственных и муниципальных услуги "Прием заявлений, постановка на учет и зачисление детей в образовательные учреждения, реализующие основную образовательную программу дошкольного образования (детские сады)" в электронной форме тех районов Республики Башкортостан, для которых ответ "нет" присутствует в одной из колонок.</t>
-  </si>
-  <si>
-    <t>Форма самообследования предоставления государственных и муниципальных услуги "Зачисление детей в общеобразовательные учреждения субъектов Российской Федерации или муниципальные общеобразовательные учреждения" в электронной форме тех районов Республики Башкортостан, для которых ответ "нет" присутствует в одной из колонок.</t>
-  </si>
-  <si>
-    <t>Форма самообследования предоставления государственных и муниципальных услуги "Принятие на учет граждан в качестве нуждающихся в жилых помещениях" в электронной форме тех районов Республики Башкортостан, для которых ответ "нет" присутствует в одной из колонок.</t>
-  </si>
-  <si>
-    <t>Форма самообследования предоставления государственных и муниципальных услуги "Выдача градостроительных планов земельных участков" в электронной форме тех районов Республики Башкортостан, для которых ответ "нет" присутствует в одной из колонок.</t>
-  </si>
-  <si>
-    <t>Форма самообследования предоставления государственных и муниципальных услуги "Предоставление архивных справок, архивных копий, архивных выписок, информационных писем, связанных с реализацией законных прав и свобод граждан и исполнением государственными органами и органами местного самоуправления своих полномочий" в электронной форме тех районов Республики Башкортостан, для которых ответ "нет" присутствует в одной из колонок.</t>
-  </si>
-  <si>
-    <t>Форма самообследования предоставления государственных и муниципальных услуги "Утверждение схемы расположения земельного участка или земельных участков на кадастровом плане территории" в электронной форме тех районов Республики Башкортостан, для которых ответ "нет" присутствует в одной из колонок.</t>
   </si>
 </sst>
 </file>
@@ -304,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -322,6 +297,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -622,7 +600,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C6"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,25 +617,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -747,86 +723,333 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
     </row>
     <row r="5" spans="1:17" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="10" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7" t="s">
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="1:17" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Q1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="10"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <f>B3+1</f>
+        <v>3</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:Q3" si="0">C3+1</f>
+        <v>4</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K3" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M3" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N3" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="O3" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="P3" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q3" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+    </row>
+    <row r="5" spans="1:17" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="1:17" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
       <c r="M6" s="5" t="s">
         <v>15</v>
       </c>
@@ -866,12 +1089,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,26 +1110,24 @@
     <col min="17" max="17" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9"/>
+    <row r="1" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -996,86 +1217,1074 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
     </row>
     <row r="5" spans="1:17" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="10" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7" t="s">
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="1:17" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Q1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="10"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <f>B3+1</f>
+        <v>3</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:Q3" si="0">C3+1</f>
+        <v>4</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K3" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M3" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N3" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="O3" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="P3" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q3" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+    </row>
+    <row r="5" spans="1:17" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="1:17" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Q1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="10"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <f>B3+1</f>
+        <v>3</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:Q3" si="0">C3+1</f>
+        <v>4</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K3" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M3" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N3" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="O3" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="P3" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q3" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+    </row>
+    <row r="5" spans="1:17" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="1:17" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Q1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="10"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <f>B3+1</f>
+        <v>3</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:Q3" si="0">C3+1</f>
+        <v>4</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K3" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M3" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N3" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="O3" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="P3" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q3" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+    </row>
+    <row r="5" spans="1:17" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="1:17" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Q1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="10"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <f>B3+1</f>
+        <v>3</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:Q3" si="0">C3+1</f>
+        <v>4</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K3" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M3" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N3" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="O3" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="P3" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q3" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+    </row>
+    <row r="5" spans="1:17" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="1:17" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
       <c r="M6" s="5" t="s">
         <v>15</v>
       </c>
@@ -1120,7 +2329,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:Q4"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,25 +2346,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1245,104 +2452,109 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
     </row>
     <row r="5" spans="1:17" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="10" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7" t="s">
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="1:17" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="5" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="7" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:O5"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A4:A6"/>
@@ -1354,11 +2566,6 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1386,25 +2593,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1494,104 +2699,109 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
     </row>
     <row r="5" spans="1:17" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="10" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7" t="s">
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="1:17" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="5" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="7" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:O5"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A4:A6"/>
@@ -1603,11 +2813,6 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1635,25 +2840,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1743,104 +2946,109 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
     </row>
     <row r="5" spans="1:17" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="10" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7" t="s">
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="1:17" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="5" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="7" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:O5"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A4:A6"/>
@@ -1852,11 +3060,6 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1867,7 +3070,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:L6"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1884,25 +3087,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1992,104 +3193,109 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
     </row>
     <row r="5" spans="1:17" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="10" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7" t="s">
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="1:17" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="5" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="7" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:O5"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A4:A6"/>
@@ -2101,11 +3307,6 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2132,26 +3333,24 @@
     <col min="17" max="17" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9"/>
+    <row r="1" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -2241,86 +3440,86 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
     </row>
     <row r="5" spans="1:17" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="10" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7" t="s">
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="1:17" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
       <c r="M6" s="5" t="s">
         <v>15</v>
       </c>
@@ -2381,26 +3580,24 @@
     <col min="17" max="17" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9"/>
+    <row r="1" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -2490,86 +3687,86 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
     </row>
     <row r="5" spans="1:17" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="10" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7" t="s">
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="1:17" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
       <c r="M6" s="5" t="s">
         <v>15</v>
       </c>
@@ -2614,7 +3811,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2630,26 +3827,24 @@
     <col min="17" max="17" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9"/>
+    <row r="1" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -2739,86 +3934,86 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
     </row>
     <row r="5" spans="1:17" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="10" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7" t="s">
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="1:17" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
       <c r="M6" s="5" t="s">
         <v>15</v>
       </c>
@@ -2863,7 +4058,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H6"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2879,26 +4074,24 @@
     <col min="17" max="17" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9"/>
+    <row r="1" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -2988,86 +4181,86 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
     </row>
     <row r="5" spans="1:17" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="10" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7" t="s">
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="1:17" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
       <c r="M6" s="5" t="s">
         <v>15</v>
       </c>
